--- a/sample data/Sample NA Supreme Products for the Week of September 15 2022 (Week 4 of FW22) - Sheets.xlsx
+++ b/sample data/Sample NA Supreme Products for the Week of September 15 2022 (Week 4 of FW22) - Sheets.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huymai/Desktop/supreme-products-scraper/sample data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8598628D-8CB1-A048-9AC5-0912A897DB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bags" sheetId="1" r:id="rId1"/>
@@ -13,13 +19,13 @@
     <sheet name="Pants" sheetId="4" r:id="rId4"/>
     <sheet name="Shorts" sheetId="5" r:id="rId5"/>
     <sheet name="Tops_Sweaters" sheetId="6" r:id="rId6"/>
-    <sheet name="T_Shirts" sheetId="7" r:id="rId7"/>
+    <sheet name="T-Shirts" sheetId="7" r:id="rId7"/>
     <sheet name="Jackets" sheetId="8" r:id="rId8"/>
     <sheet name="Sweatshirts" sheetId="9" r:id="rId9"/>
     <sheet name="Hats" sheetId="10" r:id="rId10"/>
     <sheet name="Accessories" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1349,8 +1355,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1413,6 +1419,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1459,7 +1473,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1491,9 +1505,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1525,6 +1557,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1700,14 +1750,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1748,7 +1798,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1789,7 +1839,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1830,7 +1880,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1871,7 +1921,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1912,7 +1962,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1953,7 +2003,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2000,14 +2050,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2048,7 +2098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>364</v>
       </c>
@@ -2089,7 +2139,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>365</v>
       </c>
@@ -2130,7 +2180,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>366</v>
       </c>
@@ -2171,7 +2221,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>367</v>
       </c>
@@ -2212,7 +2262,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>368</v>
       </c>
@@ -2253,7 +2303,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>369</v>
       </c>
@@ -2300,14 +2350,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2348,7 +2398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>401</v>
       </c>
@@ -2389,7 +2439,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>402</v>
       </c>
@@ -2430,7 +2480,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>403</v>
       </c>
@@ -2471,7 +2521,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>404</v>
       </c>
@@ -2512,7 +2562,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>405</v>
       </c>
@@ -2553,7 +2603,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>406</v>
       </c>
@@ -2594,7 +2644,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>407</v>
       </c>
@@ -2641,14 +2691,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2689,7 +2739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -2730,7 +2780,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -2771,7 +2821,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -2812,7 +2862,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -2859,14 +2909,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2907,7 +2957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -2948,7 +2998,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -2989,7 +3039,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -3027,7 +3077,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -3074,14 +3124,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3122,7 +3172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>105</v>
       </c>
@@ -3163,7 +3213,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -3204,7 +3254,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -3245,7 +3295,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>108</v>
       </c>
@@ -3286,7 +3336,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -3327,7 +3377,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -3368,7 +3418,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>111</v>
       </c>
@@ -3409,7 +3459,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -3450,7 +3500,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>113</v>
       </c>
@@ -3491,7 +3541,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -3532,7 +3582,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>115</v>
       </c>
@@ -3579,14 +3629,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3627,7 +3677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>174</v>
       </c>
@@ -3668,7 +3718,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>175</v>
       </c>
@@ -3715,14 +3765,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3763,7 +3813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>187</v>
       </c>
@@ -3804,7 +3854,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>188</v>
       </c>
@@ -3845,7 +3895,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>189</v>
       </c>
@@ -3886,7 +3936,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>190</v>
       </c>
@@ -3927,7 +3977,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>191</v>
       </c>
@@ -3968,7 +4018,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>192</v>
       </c>
@@ -4009,7 +4059,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>193</v>
       </c>
@@ -4050,7 +4100,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>194</v>
       </c>
@@ -4091,7 +4141,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>195</v>
       </c>
@@ -4132,7 +4182,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>196</v>
       </c>
@@ -4173,7 +4223,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>197</v>
       </c>
@@ -4220,14 +4270,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4268,7 +4318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>254</v>
       </c>
@@ -4309,7 +4359,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>255</v>
       </c>
@@ -4350,7 +4400,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>256</v>
       </c>
@@ -4391,7 +4441,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>257</v>
       </c>
@@ -4432,7 +4482,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>258</v>
       </c>
@@ -4479,14 +4529,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4527,7 +4577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>284</v>
       </c>
@@ -4568,7 +4618,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>285</v>
       </c>
@@ -4609,7 +4659,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>286</v>
       </c>
@@ -4650,7 +4700,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>287</v>
       </c>
@@ -4691,7 +4741,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>288</v>
       </c>
@@ -4732,7 +4782,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>289</v>
       </c>
@@ -4779,14 +4829,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4827,7 +4877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>321</v>
       </c>
@@ -4868,7 +4918,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>322</v>
       </c>
@@ -4909,7 +4959,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>323</v>
       </c>
@@ -4950,7 +5000,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>324</v>
       </c>
@@ -4991,7 +5041,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>325</v>
       </c>
@@ -5032,7 +5082,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>326</v>
       </c>
@@ -5073,7 +5123,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>327</v>
       </c>
